--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3747.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3747.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3747</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Narangoda Liyanaarachchilage Thisara Chirantha Perera</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3065</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>27/12/2009</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3066</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3068</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>08/01/2010</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3070</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3071</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3073</t>
+          <t>3073</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3113</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,7 +911,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/06/2010</t>
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3115</t>
+          <t>3115</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +958,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>05/06/2010</t>
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3118</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3119</t>
+          <t>3119</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -996,7 +1057,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>21/08/2010</t>
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3169</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3171</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1108,7 +1168,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3199</t>
+          <t>3199</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1148,7 +1208,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>05/11/2010</t>
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3202</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3234</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1312,7 +1371,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3237</t>
+          <t>3237</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1364,7 +1423,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3244</t>
+          <t>3244</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1416,7 +1475,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3260</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1468,7 +1527,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3283</t>
+          <t>3283</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1520,7 +1579,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3308</t>
+          <t>3308</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1572,7 +1631,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3349</t>
+          <t>3349</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1624,7 +1683,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3350</t>
+          <t>3350</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1676,7 +1735,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3351</t>
+          <t>3351</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1728,7 +1787,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3352</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1780,7 +1839,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3364</t>
+          <t>3364</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1832,7 +1891,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3365</t>
+          <t>3365</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1884,7 +1943,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3369</t>
+          <t>3369</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1936,7 +1995,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3375</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1976,7 +2035,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>17/02/2012</t>
@@ -1984,7 +2042,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3377</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2036,7 +2094,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3382</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2088,7 +2146,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3384</t>
+          <t>3384</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2140,7 +2198,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3387</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2192,7 +2250,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3389</t>
+          <t>3389</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2244,7 +2302,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3408</t>
+          <t>3408</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2296,7 +2354,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3409</t>
+          <t>3409</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2336,7 +2394,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>13/06/2012</t>
@@ -2344,7 +2401,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3410</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2396,7 +2453,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3411</t>
+          <t>3411</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2448,7 +2505,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3413</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2500,7 +2557,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3431</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2540,7 +2597,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>24/07/2012</t>
@@ -2548,7 +2604,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2588,7 +2644,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>28/07/2012</t>
@@ -2596,7 +2651,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3433</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2648,7 +2703,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3434</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2700,7 +2755,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2740,7 +2795,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>04/11/2012</t>
@@ -2748,7 +2802,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3446</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2788,7 +2842,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>06/11/2012</t>
@@ -2796,7 +2849,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3447</t>
+          <t>3447</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2836,7 +2889,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>10/11/2012</t>
@@ -2844,7 +2896,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2896,7 +2948,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2948,7 +3000,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3458</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2988,7 +3040,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>13/01/2013</t>
@@ -2996,7 +3047,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3460</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3048,7 +3099,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3462</t>
+          <t>3462</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3088,7 +3139,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>20/01/2013</t>
@@ -3096,7 +3146,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3465</t>
+          <t>3465</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3148,7 +3198,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3467</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3188,7 +3238,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>23/03/2013</t>
@@ -3196,7 +3245,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3490</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3236,7 +3285,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -3244,7 +3292,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3492</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3296,7 +3344,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3493</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3348,7 +3396,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3508</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3400,7 +3448,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3452,7 +3500,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3534</t>
+          <t>3534</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3504,7 +3552,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3536</t>
+          <t>3536</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3556,7 +3604,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3540</t>
+          <t>3540</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3596,7 +3644,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>28/07/2013</t>
@@ -3604,7 +3651,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3542</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3656,7 +3703,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3543</t>
+          <t>3543</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3708,7 +3755,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3579</t>
+          <t>3579</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3760,7 +3807,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3589</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3812,7 +3859,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3590</t>
+          <t>3590</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3864,7 +3911,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3591</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3916,7 +3963,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3614</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3968,7 +4015,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4008,7 +4055,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>22/02/2014</t>
@@ -4016,7 +4062,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4068,7 +4114,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3618</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4120,7 +4166,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4172,7 +4218,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4224,7 +4270,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4264,7 +4310,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>08/03/2014</t>
@@ -4272,7 +4317,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3631</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4324,7 +4369,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4376,7 +4421,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3658</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4428,7 +4473,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3662</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4468,7 +4513,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>30/08/2014</t>
@@ -4476,7 +4520,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3666</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4528,7 +4572,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4580,7 +4624,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4632,7 +4676,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4684,7 +4728,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3693</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4736,7 +4780,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3696</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4788,7 +4832,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4828,7 +4872,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>29/11/2014</t>
@@ -4836,7 +4879,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3706</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4888,7 +4931,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4928,7 +4971,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>07/12/2014</t>
@@ -4936,7 +4978,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4988,7 +5030,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5040,7 +5082,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5092,7 +5134,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5144,7 +5186,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3723</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5184,7 +5226,6 @@
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>15/01/2015</t>
@@ -5192,7 +5233,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3726</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5232,7 +5273,6 @@
           <t>94</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>17/01/2015</t>
@@ -5240,7 +5280,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3729</t>
+          <t>3729</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5292,7 +5332,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3734</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5344,7 +5384,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5396,7 +5436,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5448,7 +5488,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5500,7 +5540,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5540,7 +5580,6 @@
           <t>100</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>26/02/2015</t>
@@ -5548,7 +5587,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5588,7 +5627,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>01/03/2015</t>
@@ -5596,7 +5634,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5648,7 +5686,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3779</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5700,7 +5738,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5752,7 +5790,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3790</t>
+          <t>3790</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5804,7 +5842,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5856,7 +5894,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5908,7 +5946,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5948,7 +5986,6 @@
           <t>108</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>26/07/2015</t>
@@ -5956,7 +5993,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5996,7 +6033,6 @@
           <t>109</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -6004,7 +6040,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6056,7 +6092,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6108,7 +6144,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6160,7 +6196,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6212,7 +6248,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6264,7 +6300,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6316,7 +6352,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6368,7 +6404,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6420,7 +6456,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6460,7 +6496,6 @@
           <t>118</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>08/06/2017</t>
@@ -6468,7 +6503,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6520,7 +6555,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6572,7 +6607,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6624,7 +6659,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6676,7 +6711,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6728,7 +6763,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6780,7 +6815,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6832,7 +6867,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6872,7 +6907,6 @@
           <t>126</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
           <t>10/12/2017</t>
@@ -6880,7 +6914,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6932,7 +6966,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6984,7 +7018,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7036,7 +7070,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4112</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7088,7 +7122,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7140,7 +7174,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7180,7 +7214,6 @@
           <t>132</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -7188,7 +7221,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7240,7 +7273,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7292,7 +7325,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7344,7 +7377,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7396,7 +7429,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7448,7 +7481,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7500,7 +7533,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7552,7 +7585,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7604,7 +7637,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7644,7 +7677,6 @@
           <t>141</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -7652,7 +7684,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7704,7 +7736,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7756,7 +7788,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7808,7 +7840,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7860,7 +7892,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7912,7 +7944,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7964,7 +7996,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8016,7 +8048,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8068,7 +8100,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8120,7 +8152,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4264</t>
+          <t>4264</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8172,7 +8204,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8224,7 +8256,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4271</t>
+          <t>4271</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8276,7 +8308,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4272</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8328,7 +8360,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8380,7 +8412,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8432,7 +8464,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8484,7 +8516,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8536,7 +8568,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8588,7 +8620,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8640,7 +8672,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8692,7 +8724,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8744,7 +8776,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8796,7 +8828,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8848,7 +8880,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8900,7 +8932,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8952,7 +8984,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8991,7 +9023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9013,7 +9045,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -9050,7 +9082,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3065</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -9087,7 +9119,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3068</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -9124,7 +9156,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3070</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9161,7 +9193,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3071</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9198,7 +9230,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3073</t>
+          <t>3073</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9235,7 +9267,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3113</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -9272,7 +9304,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3115</t>
+          <t>3115</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -9309,7 +9341,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3118</t>
+          <t>3118</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9346,7 +9378,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3119</t>
+          <t>3119</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9383,7 +9415,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3169</t>
+          <t>3169</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9420,7 +9452,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3171</t>
+          <t>3171</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9457,7 +9489,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3199</t>
+          <t>3199</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9494,7 +9526,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3200</t>
+          <t>3200</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -9531,7 +9563,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3202</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -9568,7 +9600,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3234</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -9605,7 +9637,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3237</t>
+          <t>3237</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -9642,7 +9674,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3244</t>
+          <t>3244</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -9679,7 +9711,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3260</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -9716,7 +9748,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3283</t>
+          <t>3283</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -9753,7 +9785,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3308</t>
+          <t>3308</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -9790,7 +9822,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3349</t>
+          <t>3349</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -9827,7 +9859,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3350</t>
+          <t>3350</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -9864,7 +9896,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3351</t>
+          <t>3351</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -9901,7 +9933,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3352</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -9938,7 +9970,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3364</t>
+          <t>3364</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -9975,7 +10007,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3365</t>
+          <t>3365</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -10012,7 +10044,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3369</t>
+          <t>3369</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -10049,7 +10081,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3375</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -10086,7 +10118,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3377</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -10123,7 +10155,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3382</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -10160,7 +10192,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3384</t>
+          <t>3384</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -10197,7 +10229,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3387</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -10234,7 +10266,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3389</t>
+          <t>3389</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -10271,7 +10303,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3408</t>
+          <t>3408</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -10308,7 +10340,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3409</t>
+          <t>3409</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -10345,7 +10377,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3411</t>
+          <t>3411</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -10382,7 +10414,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3413</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -10419,7 +10451,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3431</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -10456,7 +10488,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -10493,7 +10525,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3433</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -10530,7 +10562,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3434</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -10567,7 +10599,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -10604,7 +10636,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3446</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -10641,7 +10673,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3447</t>
+          <t>3447</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -10678,7 +10710,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -10715,7 +10747,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3458</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -10752,7 +10784,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3460</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10789,7 +10821,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3462</t>
+          <t>3462</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10826,7 +10858,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3465</t>
+          <t>3465</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10863,7 +10895,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3467</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10900,7 +10932,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3490</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10937,7 +10969,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3493</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10974,7 +11006,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3508</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11011,7 +11043,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11048,7 +11080,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3534</t>
+          <t>3534</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11085,7 +11117,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3536</t>
+          <t>3536</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11122,7 +11154,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3540</t>
+          <t>3540</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11159,7 +11191,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3542</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -11196,7 +11228,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3543</t>
+          <t>3543</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -11233,7 +11265,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3589</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -11270,7 +11302,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3590</t>
+          <t>3590</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11307,7 +11339,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3591</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11344,7 +11376,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3614</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -11381,7 +11413,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -11418,7 +11450,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -11455,7 +11487,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3618</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -11492,7 +11524,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -11529,7 +11561,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -11566,7 +11598,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -11603,7 +11635,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3631</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -11640,7 +11672,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -11677,7 +11709,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3658</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -11714,7 +11746,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3662</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -11751,7 +11783,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3666</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -11788,7 +11820,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -11825,7 +11857,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -11862,7 +11894,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -11899,7 +11931,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3693</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -11936,7 +11968,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3696</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -11973,7 +12005,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -12010,7 +12042,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3706</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -12047,7 +12079,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -12084,7 +12116,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -12121,7 +12153,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -12158,7 +12190,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -12195,7 +12227,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -12232,7 +12264,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3723</t>
+          <t>3723</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -12269,7 +12301,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3726</t>
+          <t>3726</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -12306,7 +12338,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3729</t>
+          <t>3729</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -12343,7 +12375,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3734</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -12380,7 +12412,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -12417,7 +12449,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -12454,7 +12486,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -12491,7 +12523,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -12528,7 +12560,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -12565,7 +12597,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -12602,7 +12634,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3779</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -12639,7 +12671,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3782</t>
+          <t>3782</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -12676,7 +12708,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3790</t>
+          <t>3790</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -12713,7 +12745,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -12750,7 +12782,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3819</t>
+          <t>3819</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -12787,7 +12819,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3820</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -12824,7 +12856,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -12861,7 +12893,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -12898,7 +12930,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3872</t>
+          <t>3872</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -12935,7 +12967,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -12972,7 +13004,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -13009,7 +13041,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -13046,7 +13078,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -13083,7 +13115,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -13120,7 +13152,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -13157,7 +13189,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -13194,7 +13226,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -13231,7 +13263,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4061</t>
+          <t>4061</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -13268,7 +13300,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -13305,7 +13337,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -13342,7 +13374,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -13379,7 +13411,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -13416,7 +13448,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -13453,7 +13485,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -13490,7 +13522,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -13527,7 +13559,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -13564,7 +13596,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4112</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -13601,7 +13633,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -13638,7 +13670,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -13675,7 +13707,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -13712,7 +13744,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -13749,7 +13781,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -13786,7 +13818,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -13823,7 +13855,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -13860,7 +13892,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -13897,7 +13929,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -13934,7 +13966,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -13971,7 +14003,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -14008,7 +14040,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -14045,7 +14077,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -14082,7 +14114,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -14119,7 +14151,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -14156,7 +14188,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -14193,7 +14225,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -14230,7 +14262,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4264</t>
+          <t>4264</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -14267,7 +14299,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -14304,7 +14336,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4271</t>
+          <t>4271</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -14341,7 +14373,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4272</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -14378,7 +14410,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -14415,7 +14447,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -14452,7 +14484,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -14489,7 +14521,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -14526,7 +14558,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -14563,7 +14595,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -14600,7 +14632,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4350</t>
+          <t>4350</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -14637,7 +14669,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4356</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -14674,7 +14706,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -14711,7 +14743,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4414</t>
+          <t>4414</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -14748,7 +14780,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -14785,7 +14817,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4450</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -14822,7 +14854,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -14848,6 +14880,573 @@
       <c r="G158" t="inlineStr">
         <is>
           <t>1/27</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.98%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.03%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4264</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9.92%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4271</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>19.85%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.83%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10.34%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11.03%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12.38%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.09%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3747.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3747.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14970,15 +14971,519 @@
           <t>4233</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.03%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4264</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>16.67%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9.92%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4271</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.89%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>19.85%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.83%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10.34%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.76%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>11.03%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4414</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>12.38%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4450</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.09%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -14986,29 +15491,12 @@
           <t>4261</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.03%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -15016,27 +15504,14 @@
           <t>4264</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>7</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -15046,29 +15521,12 @@
           <t>4269</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.92%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -15078,13 +15536,6 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -15092,27 +15543,14 @@
           <t>4272</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.89%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -15124,13 +15562,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -15138,29 +15569,12 @@
           <t>4305</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>19.85%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -15168,27 +15582,14 @@
           <t>4309</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>7</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.00%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -15198,29 +15599,12 @@
           <t>4322</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.83%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -15228,29 +15612,12 @@
           <t>4331</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.86%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -15258,29 +15625,12 @@
           <t>4339</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10.34%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -15288,29 +15638,12 @@
           <t>4350</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.76%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -15320,13 +15653,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -15334,27 +15660,14 @@
           <t>4413</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>11.03%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -15366,13 +15679,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15380,29 +15686,12 @@
           <t>4417</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>12.38%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15412,13 +15701,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15426,27 +15708,14 @@
           <t>4451</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>7</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.09%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3747.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3747.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -610,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>27/12/2009</t>
@@ -709,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>08/01/2010</t>
@@ -912,6 +912,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/06/2010</t>
@@ -959,6 +960,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>05/06/2010</t>
@@ -1058,6 +1060,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>21/08/2010</t>
@@ -1209,6 +1212,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>05/11/2010</t>
@@ -2036,6 +2040,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>17/02/2012</t>
@@ -2395,6 +2400,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>13/06/2012</t>
@@ -2407,7 +2413,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2598,6 +2604,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>24/07/2012</t>
@@ -2645,6 +2652,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>28/07/2012</t>
@@ -2796,6 +2804,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>04/11/2012</t>
@@ -2843,6 +2852,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>06/11/2012</t>
@@ -2890,6 +2900,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>10/11/2012</t>
@@ -3041,6 +3052,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>13/01/2013</t>
@@ -3140,6 +3152,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>20/01/2013</t>
@@ -3239,6 +3252,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>23/03/2013</t>
@@ -3286,6 +3300,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -3645,6 +3660,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>28/07/2013</t>
@@ -4056,6 +4072,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>22/02/2014</t>
@@ -4311,6 +4328,7 @@
           <t>75</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>08/03/2014</t>
@@ -4514,6 +4532,7 @@
           <t>79</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>30/08/2014</t>
@@ -4873,6 +4892,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>29/11/2014</t>
@@ -4972,6 +4992,7 @@
           <t>88</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>07/12/2014</t>
@@ -5227,6 +5248,7 @@
           <t>93</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>15/01/2015</t>
@@ -5274,6 +5296,7 @@
           <t>94</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>17/01/2015</t>
@@ -5286,7 +5309,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5581,6 +5604,7 @@
           <t>100</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>26/02/2015</t>
@@ -5628,6 +5652,7 @@
           <t>101</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>01/03/2015</t>
@@ -5987,6 +6012,7 @@
           <t>108</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>26/07/2015</t>
@@ -6034,6 +6060,7 @@
           <t>109</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -6046,7 +6073,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6497,6 +6524,7 @@
           <t>118</t>
         </is>
       </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>08/06/2017</t>
@@ -6908,6 +6936,7 @@
           <t>126</t>
         </is>
       </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
           <t>10/12/2017</t>
@@ -7215,6 +7244,7 @@
           <t>132</t>
         </is>
       </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -7678,6 +7708,7 @@
           <t>141</t>
         </is>
       </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -7690,7 +7721,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -14887,839 +14918,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>46.98%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4261</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.03%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4264</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16.67%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4269</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.92%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4271</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4272</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.89%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>19.85%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.00%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4322</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.83%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.86%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>10.34%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4350</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.76%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>11.03%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>12.38%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.09%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4261</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4264</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4269</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4271</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4272</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4322</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4350</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4356</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4414</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4450</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>